--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H2">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I2">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J2">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N2">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O2">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P2">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q2">
-        <v>2078.036367390037</v>
+        <v>1323.754306783592</v>
       </c>
       <c r="R2">
-        <v>8312.14546956015</v>
+        <v>5295.017227134366</v>
       </c>
       <c r="S2">
-        <v>0.00775937088290897</v>
+        <v>0.00390532445663439</v>
       </c>
       <c r="T2">
-        <v>0.003885656646612775</v>
+        <v>0.001900639244157106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H3">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I3">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J3">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P3">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q3">
-        <v>2101.409656719955</v>
+        <v>1584.092782166978</v>
       </c>
       <c r="R3">
-        <v>12608.45794031973</v>
+        <v>9504.556693001867</v>
       </c>
       <c r="S3">
-        <v>0.007846646555034071</v>
+        <v>0.004673371978525368</v>
       </c>
       <c r="T3">
-        <v>0.005894042468187637</v>
+        <v>0.003411647719758593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H4">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I4">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J4">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N4">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O4">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P4">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q4">
-        <v>1968.072141807196</v>
+        <v>2085.186831975586</v>
       </c>
       <c r="R4">
-        <v>11808.43285084318</v>
+        <v>12511.12099185352</v>
       </c>
       <c r="S4">
-        <v>0.007348765359570224</v>
+        <v>0.006151693777187852</v>
       </c>
       <c r="T4">
-        <v>0.005520056856679077</v>
+        <v>0.004490849892547695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H5">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I5">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J5">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N5">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O5">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P5">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q5">
-        <v>950.6445076047512</v>
+        <v>971.6779502843518</v>
       </c>
       <c r="R5">
-        <v>3802.578030419005</v>
+        <v>3886.711801137407</v>
       </c>
       <c r="S5">
-        <v>0.003549698854197736</v>
+        <v>0.002866632911992646</v>
       </c>
       <c r="T5">
-        <v>0.001777581089295252</v>
+        <v>0.001395129923678876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H6">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I6">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J6">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N6">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O6">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P6">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q6">
-        <v>1282.060436546298</v>
+        <v>3623.411005975413</v>
       </c>
       <c r="R6">
-        <v>7692.362619277786</v>
+        <v>21740.46603585248</v>
       </c>
       <c r="S6">
-        <v>0.004787203235505125</v>
+        <v>0.01068974472495321</v>
       </c>
       <c r="T6">
-        <v>0.003595928397693701</v>
+        <v>0.00780371076457639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.3301985</v>
+        <v>31.9095145</v>
       </c>
       <c r="H7">
-        <v>84.660397</v>
+        <v>63.819029</v>
       </c>
       <c r="I7">
-        <v>0.03880108177208133</v>
+        <v>0.03150292419828803</v>
       </c>
       <c r="J7">
-        <v>0.02631398137952337</v>
+        <v>0.02134983098434506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N7">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O7">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P7">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q7">
-        <v>2011.090855095865</v>
+        <v>1090.152909328299</v>
       </c>
       <c r="R7">
-        <v>12066.54513057519</v>
+        <v>6540.917455969793</v>
       </c>
       <c r="S7">
-        <v>0.007509396884865205</v>
+        <v>0.003216156348994558</v>
       </c>
       <c r="T7">
-        <v>0.005640715921054926</v>
+        <v>0.002347853439626396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J8">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N8">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O8">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P8">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q8">
-        <v>1370.703407825393</v>
+        <v>1158.318101561412</v>
       </c>
       <c r="R8">
-        <v>8224.220446952357</v>
+        <v>6949.908609368473</v>
       </c>
       <c r="S8">
-        <v>0.00511819536880519</v>
+        <v>0.003417256501005381</v>
       </c>
       <c r="T8">
-        <v>0.003844554568966193</v>
+        <v>0.002494660258814651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J9">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P9">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q9">
         <v>1386.120773873152</v>
@@ -1013,10 +1013,10 @@
         <v>12475.08696485836</v>
       </c>
       <c r="S9">
-        <v>0.005175763688147156</v>
+        <v>0.004089317277621344</v>
       </c>
       <c r="T9">
-        <v>0.005831695891222098</v>
+        <v>0.004477915527484436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J10">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N10">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O10">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P10">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q10">
-        <v>1298.169384306549</v>
+        <v>1824.590590744475</v>
       </c>
       <c r="R10">
-        <v>11683.52445875894</v>
+        <v>16421.31531670027</v>
       </c>
       <c r="S10">
-        <v>0.004847353915332827</v>
+        <v>0.005382885797510979</v>
       </c>
       <c r="T10">
-        <v>0.005461666261170708</v>
+        <v>0.005894408836227701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J11">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N11">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O11">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P11">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q11">
-        <v>627.0591249762033</v>
+        <v>850.2424905700075</v>
       </c>
       <c r="R11">
-        <v>3762.35474985722</v>
+        <v>5101.454943420044</v>
       </c>
       <c r="S11">
-        <v>0.002341433669091067</v>
+        <v>0.002508375440576087</v>
       </c>
       <c r="T11">
-        <v>0.001758778018772024</v>
+        <v>0.001831160325234832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J12">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N12">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O12">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P12">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q12">
-        <v>845.6659551243935</v>
+        <v>3170.57518612803</v>
       </c>
       <c r="R12">
-        <v>7610.993596119541</v>
+        <v>28535.17667515227</v>
       </c>
       <c r="S12">
-        <v>0.00315770979364578</v>
+        <v>0.009353793791288619</v>
       </c>
       <c r="T12">
-        <v>0.003557891035760963</v>
+        <v>0.01024266292276118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02559376527134719</v>
+        <v>0.02756584599120745</v>
       </c>
       <c r="J13">
-        <v>0.02603563478222566</v>
+        <v>0.02802245352598476</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N13">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O13">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P13">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q13">
-        <v>1326.545161473097</v>
+        <v>953.9110406469407</v>
       </c>
       <c r="R13">
-        <v>11938.90645325787</v>
+        <v>8585.199365822466</v>
       </c>
       <c r="S13">
-        <v>0.004953308836325168</v>
+        <v>0.00281421718320504</v>
       </c>
       <c r="T13">
-        <v>0.005581049006333673</v>
+        <v>0.003081645655461963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H14">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I14">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J14">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N14">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O14">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P14">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q14">
-        <v>21650.30146396918</v>
+        <v>12494.33080558564</v>
       </c>
       <c r="R14">
-        <v>129901.8087838151</v>
+        <v>74965.98483351387</v>
       </c>
       <c r="S14">
-        <v>0.08084204945687193</v>
+        <v>0.03686062845218831</v>
       </c>
       <c r="T14">
-        <v>0.06072485479907785</v>
+        <v>0.02690893846790636</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H15">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I15">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J15">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P15">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q15">
-        <v>21893.81922339746</v>
+        <v>14951.55040909746</v>
       </c>
       <c r="R15">
-        <v>197044.3730105771</v>
+        <v>134563.9536818772</v>
       </c>
       <c r="S15">
-        <v>0.08175134278861097</v>
+        <v>0.04410988895599944</v>
       </c>
       <c r="T15">
-        <v>0.09211181162192911</v>
+        <v>0.04830154846448523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H16">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I16">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J16">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N16">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O16">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P16">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q16">
-        <v>20504.62438560765</v>
+        <v>19681.15528436446</v>
       </c>
       <c r="R16">
-        <v>184541.6194704688</v>
+        <v>177130.3975592802</v>
       </c>
       <c r="S16">
-        <v>0.07656410057081853</v>
+        <v>0.05806311388221458</v>
       </c>
       <c r="T16">
-        <v>0.0862671825099877</v>
+        <v>0.06358071569797648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H17">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I17">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J17">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N17">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O17">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P17">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q17">
-        <v>9904.41769821361</v>
+        <v>9171.237959440175</v>
       </c>
       <c r="R17">
-        <v>59426.50618928166</v>
+        <v>55027.42775664106</v>
       </c>
       <c r="S17">
-        <v>0.03698301507408711</v>
+        <v>0.02705687884607633</v>
       </c>
       <c r="T17">
-        <v>0.02777995159071447</v>
+        <v>0.01975202047754131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H18">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I18">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J18">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N18">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O18">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P18">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q18">
-        <v>13357.31914120318</v>
+        <v>34199.77220943447</v>
       </c>
       <c r="R18">
-        <v>120215.8722708286</v>
+        <v>307797.9498849103</v>
       </c>
       <c r="S18">
-        <v>0.04987612095939852</v>
+        <v>0.1008957675426579</v>
       </c>
       <c r="T18">
-        <v>0.05619699568879369</v>
+        <v>0.1104836561861326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>441.022868</v>
+        <v>301.1797793333333</v>
       </c>
       <c r="H19">
-        <v>1323.068604</v>
+        <v>903.539338</v>
       </c>
       <c r="I19">
-        <v>0.4042542905775845</v>
+        <v>0.2973421534945358</v>
       </c>
       <c r="J19">
-        <v>0.4112336327632385</v>
+        <v>0.3022674029403835</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N19">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O19">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P19">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q19">
-        <v>20952.82063756329</v>
+        <v>10289.47064271656</v>
       </c>
       <c r="R19">
-        <v>188575.3857380696</v>
+        <v>92605.23578444903</v>
       </c>
       <c r="S19">
-        <v>0.07823766172779745</v>
+        <v>0.03035587581539919</v>
       </c>
       <c r="T19">
-        <v>0.08815283655273569</v>
+        <v>0.03324052364634155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H20">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I20">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J20">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N20">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O20">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P20">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q20">
-        <v>648.783377189584</v>
+        <v>730.3130876437291</v>
       </c>
       <c r="R20">
-        <v>2595.133508758336</v>
+        <v>2921.252350574916</v>
       </c>
       <c r="S20">
-        <v>0.002422551850044365</v>
+        <v>0.002154561120261946</v>
       </c>
       <c r="T20">
-        <v>0.001213140193958608</v>
+        <v>0.001048579564790901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H21">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I21">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J21">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P21">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q21">
-        <v>656.0807478349973</v>
+        <v>873.9413990421403</v>
       </c>
       <c r="R21">
-        <v>3936.484487009984</v>
+        <v>5243.648394252842</v>
       </c>
       <c r="S21">
-        <v>0.002449800172641784</v>
+        <v>0.002578291682870808</v>
       </c>
       <c r="T21">
-        <v>0.001840177986207432</v>
+        <v>0.001882200471342383</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H22">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I22">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J22">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N22">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O22">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P22">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q22">
-        <v>614.451465215744</v>
+        <v>1150.394167384636</v>
       </c>
       <c r="R22">
-        <v>3686.708791294464</v>
+        <v>6902.365004307817</v>
       </c>
       <c r="S22">
-        <v>0.002294356770157966</v>
+        <v>0.003393879403174807</v>
       </c>
       <c r="T22">
-        <v>0.001723416002701061</v>
+        <v>0.002477594546332372</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H23">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I23">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J23">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N23">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O23">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P23">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q23">
-        <v>296.80055836808</v>
+        <v>536.0731371607205</v>
       </c>
       <c r="R23">
-        <v>1187.20223347232</v>
+        <v>2144.292548642882</v>
       </c>
       <c r="S23">
-        <v>0.001108250869317026</v>
+        <v>0.001581516692614423</v>
       </c>
       <c r="T23">
-        <v>0.0005549782864434589</v>
+        <v>0.0007696908988358425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H24">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I24">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J24">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N24">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O24">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P24">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q24">
-        <v>400.27186859504</v>
+        <v>1999.029930263926</v>
       </c>
       <c r="R24">
-        <v>2401.63121157024</v>
+        <v>11994.17958158355</v>
       </c>
       <c r="S24">
-        <v>0.001494611899562085</v>
+        <v>0.005897514694530184</v>
       </c>
       <c r="T24">
-        <v>0.001122684187148184</v>
+        <v>0.0043052944752293</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.215904</v>
+        <v>17.604427</v>
       </c>
       <c r="H25">
-        <v>26.431808</v>
+        <v>35.208854</v>
       </c>
       <c r="I25">
-        <v>0.01211407907279189</v>
+        <v>0.01738011179503515</v>
       </c>
       <c r="J25">
-        <v>0.008215483604915492</v>
+        <v>0.01177866686208092</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N25">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O25">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P25">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q25">
-        <v>627.8823302996054</v>
+        <v>601.4355784418988</v>
       </c>
       <c r="R25">
-        <v>3767.293981797632</v>
+        <v>3608.613470651393</v>
       </c>
       <c r="S25">
-        <v>0.002344507511068667</v>
+        <v>0.001774348201582986</v>
       </c>
       <c r="T25">
-        <v>0.001761086948456749</v>
+        <v>0.001295306905550124</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H26">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I26">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J26">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N26">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O26">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P26">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q26">
-        <v>1446.878669978145</v>
+        <v>6367.779259294567</v>
       </c>
       <c r="R26">
-        <v>8681.272019868869</v>
+        <v>38206.6755557674</v>
       </c>
       <c r="S26">
-        <v>0.0054026331777009</v>
+        <v>0.01878614781333268</v>
       </c>
       <c r="T26">
-        <v>0.004058211258283235</v>
+        <v>0.01371423431409108</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H27">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I27">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J27">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>148.929823</v>
       </c>
       <c r="O27">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P27">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q27">
-        <v>1463.152838375477</v>
+        <v>7620.109797860067</v>
       </c>
       <c r="R27">
-        <v>13168.37554537929</v>
+        <v>68580.98818074061</v>
       </c>
       <c r="S27">
-        <v>0.005463400790042747</v>
+        <v>0.02248075870523856</v>
       </c>
       <c r="T27">
-        <v>0.006155785669341012</v>
+        <v>0.02461705258887962</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H28">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I28">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J28">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N28">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O28">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P28">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q28">
-        <v>1370.313651697782</v>
+        <v>10030.56941334581</v>
       </c>
       <c r="R28">
-        <v>12332.82286528003</v>
+        <v>90275.1247201123</v>
       </c>
       <c r="S28">
-        <v>0.005116740022596876</v>
+        <v>0.02959206843986664</v>
       </c>
       <c r="T28">
-        <v>0.00576519206905906</v>
+        <v>0.03240413344359996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H29">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I29">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J29">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N29">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O29">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P29">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q29">
-        <v>661.9072131604433</v>
+        <v>4674.153403563641</v>
       </c>
       <c r="R29">
-        <v>3971.44327896266</v>
+        <v>28044.92042138184</v>
       </c>
       <c r="S29">
-        <v>0.002471556146745994</v>
+        <v>0.01378963264365201</v>
       </c>
       <c r="T29">
-        <v>0.001856520080171731</v>
+        <v>0.01006668610613545</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H30">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I30">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J30">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N30">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O30">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P30">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q30">
-        <v>892.6628659495135</v>
+        <v>17430.03315155363</v>
       </c>
       <c r="R30">
-        <v>8033.965793545621</v>
+        <v>156870.2983639827</v>
       </c>
       <c r="S30">
-        <v>0.003333195876163729</v>
+        <v>0.05142187972336373</v>
       </c>
       <c r="T30">
-        <v>0.003755616729600154</v>
+        <v>0.05630838060078963</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.47333466666667</v>
+        <v>153.4973246666667</v>
       </c>
       <c r="H31">
-        <v>88.42000400000001</v>
+        <v>460.491974</v>
       </c>
       <c r="I31">
-        <v>0.02701610927946045</v>
+        <v>0.1515414652771984</v>
       </c>
       <c r="J31">
-        <v>0.0274825351791509</v>
+        <v>0.1540516358302383</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N31">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O31">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P31">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q31">
-        <v>1400.266379977247</v>
+        <v>5244.064589559241</v>
       </c>
       <c r="R31">
-        <v>12602.39741979522</v>
+        <v>47196.58130603316</v>
       </c>
       <c r="S31">
-        <v>0.005228583266210205</v>
+        <v>0.01547097795174474</v>
       </c>
       <c r="T31">
-        <v>0.005891209372695715</v>
+        <v>0.01694114877674258</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H32">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I32">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J32">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N32">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O32">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P32">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q32">
-        <v>26361.44186435461</v>
+        <v>19945.54989432498</v>
       </c>
       <c r="R32">
-        <v>158168.6511861276</v>
+        <v>119673.2993659499</v>
       </c>
       <c r="S32">
-        <v>0.09843340936842129</v>
+        <v>0.05884312776484357</v>
       </c>
       <c r="T32">
-        <v>0.07393868081566148</v>
+        <v>0.0429565683161684</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H33">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I33">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J33">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>148.929823</v>
       </c>
       <c r="O33">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P33">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q33">
-        <v>26657.94947967764</v>
+        <v>23868.17664126913</v>
       </c>
       <c r="R33">
-        <v>239921.5453170988</v>
+        <v>214813.5897714222</v>
       </c>
       <c r="S33">
-        <v>0.09954056639079237</v>
+        <v>0.07041561526542139</v>
       </c>
       <c r="T33">
-        <v>0.1121554898961994</v>
+        <v>0.07710704637665379</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H34">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I34">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J34">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N34">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O34">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P34">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q34">
-        <v>24966.46361212041</v>
+        <v>31418.3665224197</v>
       </c>
       <c r="R34">
-        <v>224698.1725090837</v>
+        <v>282765.2987017773</v>
       </c>
       <c r="S34">
-        <v>0.09322457192816412</v>
+        <v>0.09269009705104418</v>
       </c>
       <c r="T34">
-        <v>0.1050390600945374</v>
+        <v>0.1014982200330368</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H35">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I35">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J35">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N35">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O35">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P35">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q35">
-        <v>12059.63491022337</v>
+        <v>14640.67080975347</v>
       </c>
       <c r="R35">
-        <v>72357.80946134024</v>
+        <v>87844.0248585208</v>
       </c>
       <c r="S35">
-        <v>0.04503057860263913</v>
+        <v>0.04319273560196295</v>
       </c>
       <c r="T35">
-        <v>0.03382491371179953</v>
+        <v>0.03153149344920539</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H36">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I36">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J36">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N36">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O36">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P36">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q36">
-        <v>16263.89325758166</v>
+        <v>54595.4220031435</v>
       </c>
       <c r="R36">
-        <v>146375.0393182349</v>
+        <v>491358.7980282916</v>
       </c>
       <c r="S36">
-        <v>0.06072924505364633</v>
+        <v>0.1610667747606488</v>
       </c>
       <c r="T36">
-        <v>0.06842555228466217</v>
+        <v>0.176372573390069</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>536.9901530000001</v>
+        <v>480.7937623333332</v>
       </c>
       <c r="H37">
-        <v>1610.970459</v>
+        <v>1442.381287</v>
       </c>
       <c r="I37">
-        <v>0.4922206740267345</v>
+        <v>0.4746674992437352</v>
       </c>
       <c r="J37">
-        <v>0.5007187322909461</v>
+        <v>0.4825300098569674</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N37">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O37">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P37">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q37">
-        <v>25512.18808895567</v>
+        <v>16425.78168322122</v>
       </c>
       <c r="R37">
-        <v>229609.6928006011</v>
+        <v>147832.035148991</v>
       </c>
       <c r="S37">
-        <v>0.09526230268307129</v>
+        <v>0.04845914879981424</v>
       </c>
       <c r="T37">
-        <v>0.1073350354880862</v>
+        <v>0.05306410829183404</v>
       </c>
     </row>
   </sheetData>
